--- a/tests/Test/DbDescriber/_files/sheets.xlsx
+++ b/tests/Test/DbDescriber/_files/sheets.xlsx
@@ -180,7 +180,7 @@
     <t>{roweach $Table-&gt;Columns}{$No}</t>
   </si>
   <si>
-    <t>{$Type}</t>
+    <t>{$Type-&gt;getName()}</t>
   </si>
   <si>
     <t>{($NotNull?"NotNull ":"").$Unique}</t>
@@ -340,7 +340,7 @@
       <name val="ＭＳ ゴシック"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,9 +349,6 @@
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -411,152 +408,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="3" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="3" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="49" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="49" fillId="0" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="49" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="49" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="3" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="3" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -853,7 +850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -888,7 +885,7 @@
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -901,7 +898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -936,7 +933,7 @@
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -949,7 +946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1056,7 +1053,7 @@
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="65" fitToHeight="0" fitToWidth="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="65" fitToHeight="0" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
@@ -1069,7 +1066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1077,7 +1074,7 @@
   <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="8.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1108,12 +1105,12 @@
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:22" customHeight="1" ht="15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="27" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="40" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="24"/>
@@ -1124,12 +1121,12 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:22" customHeight="1" ht="15">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="27" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="40" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="24"/>
@@ -1140,12 +1137,12 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:22" customHeight="1" ht="15">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="27" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="40" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="24"/>
@@ -1156,12 +1153,12 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:22" customHeight="1" ht="15">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="27" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="40" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="24"/>
@@ -1172,12 +1169,12 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:22" customHeight="1" ht="15">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="27" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="40" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="24"/>
@@ -1188,18 +1185,18 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:22" customHeight="1" ht="15">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
@@ -1215,16 +1212,16 @@
       <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="28" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="13" t="s">
         <v>37</v>
       </c>
@@ -1246,7 +1243,7 @@
       <c r="N10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="O10" s="28" t="s">
+      <c r="O10" s="37" t="s">
         <v>12</v>
       </c>
       <c r="P10" s="24"/>
@@ -1260,12 +1257,12 @@
       <c r="A11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="40" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="24"/>
@@ -1291,7 +1288,7 @@
       <c r="N11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="O11" s="27" t="s">
+      <c r="O11" s="40" t="s">
         <v>16</v>
       </c>
       <c r="P11" s="24"/>
@@ -1319,14 +1316,14 @@
       <c r="B14" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="28" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="14" t="s">
         <v>54</v>
       </c>
@@ -1336,17 +1333,17 @@
       <c r="A15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="40" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="25"/>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="33"/>
       <c r="I15" s="10" t="s">
         <v>57</v>
       </c>
@@ -1367,22 +1364,22 @@
       <c r="B18" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="28" t="s">
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="28" t="s">
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="28" t="s">
+      <c r="I18" s="39"/>
+      <c r="J18" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="30"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="39"/>
       <c r="M18" s="14" t="s">
         <v>62</v>
       </c>
@@ -1399,20 +1396,20 @@
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="25"/>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="41" t="s">
+      <c r="F19" s="41"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="27" t="s">
+      <c r="I19" s="44"/>
+      <c r="J19" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="K19" s="31"/>
-      <c r="L19" s="32"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="42"/>
       <c r="M19" s="10" t="s">
         <v>67</v>
       </c>
@@ -1435,22 +1432,22 @@
       <c r="B22" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="28" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="28" t="s">
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="28" t="s">
+      <c r="I22" s="39"/>
+      <c r="J22" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="29"/>
-      <c r="L22" s="30"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="39"/>
       <c r="M22" s="14" t="s">
         <v>62</v>
       </c>
@@ -1467,20 +1464,20 @@
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="25"/>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="41" t="s">
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="I23" s="42"/>
-      <c r="J23" s="27" t="s">
+      <c r="I23" s="44"/>
+      <c r="J23" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="K23" s="31"/>
-      <c r="L23" s="32"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="42"/>
       <c r="M23" s="10" t="s">
         <v>67</v>
       </c>
@@ -1503,22 +1500,22 @@
       <c r="B26" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="43" t="s">
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45" t="s">
+      <c r="F26" s="30"/>
+      <c r="G26" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="44"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="30"/>
     </row>
     <row r="27" spans="1:22" customHeight="1" ht="15">
       <c r="A27" s="5" t="s">
@@ -1529,20 +1526,20 @@
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="25"/>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="46" t="s">
+      <c r="F27" s="33"/>
+      <c r="G27" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="48"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="36"/>
       <c r="O27" s="4" t="s">
         <v>17</v>
       </c>
@@ -1550,34 +1547,6 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:N26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:N27"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
     <mergeCell ref="O11:U11"/>
     <mergeCell ref="O10:U10"/>
     <mergeCell ref="E18:G18"/>
@@ -1594,10 +1563,38 @@
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="J19:L19"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:N26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:N27"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="43" fitToHeight="0" fitToWidth="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="43" fitToHeight="0" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
